--- a/SwagLab/SwagLab_Tests/TestData/InputData.xlsx
+++ b/SwagLab/SwagLab_Tests/TestData/InputData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\exampl\SwagLab\SwagLab_Tests\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Examples\SwagLab\SwagLab_Tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CFB515-FF5C-47EF-9A72-81C00C5973EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FCC35E-1E6E-4E00-949F-EDFEF1474220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
